--- a/medicine/Enfance/Kate_Greenaway/Kate_Greenaway.xlsx
+++ b/medicine/Enfance/Kate_Greenaway/Kate_Greenaway.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kate (Catherine) Greenaway (17 mars 1846 Londres – 6 novembre 1901) est une écrivaine et illustratrice anglaise de livres pour enfants.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses illustrations et ses livres étaient très populaires dans les années 1880 et 1890. Les nouvelles techniques de similigravure lui permettaient de reproduire ses délicates aquarelles. Ses seuls rivaux étaient Walter Crane et Randolph Caldecott. Elle travailla avec John Ruskin et elle fut une amie très proche de la peintre Helen Allingham. Elle collabora au magazine Little Folks édité par Cassell qui publia également des albums de ses dessins.
 Ses personnages étaient des petits enfants habillés à la mode du début du XIXe siècle : sarrau et justaucorps pour les garçons, robe et bonnet de tissu ou chapeau de paille pour les petites filles.
@@ -546,10 +560,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Album de dessin : douze planches à colorier, 1882 (Domaine public)[1].
-The Pied Piper of Hamelin (Le Joueur de flûte de Hamelin), poème de Robert Browning, d'après la légende allemande éponyme : trente-deux illustrations, 1888[2].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Album de dessin : douze planches à colorier, 1882 (Domaine public).
+The Pied Piper of Hamelin (Le Joueur de flûte de Hamelin), poème de Robert Browning, d'après la légende allemande éponyme : trente-deux illustrations, 1888.</t>
         </is>
       </c>
     </row>
